--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.7716040283234</v>
+        <v>255.2730650147859</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.3329601534127</v>
+        <v>349.2758694058728</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.7650425529075</v>
+        <v>315.9414706416421</v>
       </c>
       <c r="AD2" t="n">
-        <v>218771.6040283234</v>
+        <v>255273.0650147859</v>
       </c>
       <c r="AE2" t="n">
-        <v>299332.9601534127</v>
+        <v>349275.8694058728</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.053909593135311e-06</v>
+        <v>5.650532304897559e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.9755859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>270765.0425529075</v>
+        <v>315941.4706416421</v>
       </c>
     </row>
     <row r="3">
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.2454172136844</v>
+        <v>136.4411073359135</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.9980611526442</v>
+        <v>186.6847424137451</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.7736847900604</v>
+        <v>168.8678126115114</v>
       </c>
       <c r="AD3" t="n">
-        <v>124245.4172136844</v>
+        <v>136441.1073359135</v>
       </c>
       <c r="AE3" t="n">
-        <v>169998.0611526442</v>
+        <v>186684.7424137451</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.656257461837754e-06</v>
+        <v>8.615295379789848e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.263346354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>153773.6847900604</v>
+        <v>168867.8126115114</v>
       </c>
     </row>
     <row r="4">
@@ -3964,28 +3964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.05123651521291</v>
+        <v>122.3570968879973</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.1580275153196</v>
+        <v>167.4143779762271</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.3541736612675</v>
+        <v>151.4365847097776</v>
       </c>
       <c r="AD4" t="n">
-        <v>98051.23651521291</v>
+        <v>122357.0968879973</v>
       </c>
       <c r="AE4" t="n">
-        <v>134158.0275153196</v>
+        <v>167414.3779762271</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.238861511523296e-06</v>
+        <v>9.693265405854871e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.900390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>121354.1736612675</v>
+        <v>151436.5847097776</v>
       </c>
     </row>
     <row r="5">
@@ -4070,28 +4070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.7159993491474</v>
+        <v>116.0218597219318</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.4898765337748</v>
+        <v>158.7462269946823</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.5132988435723</v>
+        <v>143.5957098920824</v>
       </c>
       <c r="AD5" t="n">
-        <v>91715.9993491474</v>
+        <v>116021.8597219318</v>
       </c>
       <c r="AE5" t="n">
-        <v>125489.8765337748</v>
+        <v>158746.2269946823</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.552197920296479e-06</v>
+        <v>1.02730197980783e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.737630208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>113513.2988435723</v>
+        <v>143595.7098920824</v>
       </c>
     </row>
     <row r="6">
@@ -4176,28 +4176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.36360357593844</v>
+        <v>112.6694639487228</v>
       </c>
       <c r="AB6" t="n">
-        <v>120.9029807396092</v>
+        <v>154.1593312005167</v>
       </c>
       <c r="AC6" t="n">
-        <v>109.3641699462517</v>
+        <v>139.4465809947618</v>
       </c>
       <c r="AD6" t="n">
-        <v>88363.60357593844</v>
+        <v>112669.4639487228</v>
       </c>
       <c r="AE6" t="n">
-        <v>120902.9807396092</v>
+        <v>154159.3312005167</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.732020901016729e-06</v>
+        <v>1.060573939266183e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.6513671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>109364.1699462517</v>
+        <v>139446.5809947618</v>
       </c>
     </row>
     <row r="7">
@@ -4282,28 +4282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.50322478983976</v>
+        <v>97.7841662580894</v>
       </c>
       <c r="AB7" t="n">
-        <v>116.989284293465</v>
+        <v>133.7926102072152</v>
       </c>
       <c r="AC7" t="n">
-        <v>105.8239911960189</v>
+        <v>121.0236312681821</v>
       </c>
       <c r="AD7" t="n">
-        <v>85503.22478983976</v>
+        <v>97784.1662580894</v>
       </c>
       <c r="AE7" t="n">
-        <v>116989.284293465</v>
+        <v>133792.6102072152</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.875151030530821e-06</v>
+        <v>1.087056760579608e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.586263020833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>105823.9911960188</v>
+        <v>121023.6312681821</v>
       </c>
     </row>
     <row r="8">
@@ -4388,28 +4388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>83.62224355922922</v>
+        <v>95.90318502747886</v>
       </c>
       <c r="AB8" t="n">
-        <v>114.4156427907097</v>
+        <v>131.2189687044599</v>
       </c>
       <c r="AC8" t="n">
-        <v>103.4959744261572</v>
+        <v>118.6956144983204</v>
       </c>
       <c r="AD8" t="n">
-        <v>83622.24355922922</v>
+        <v>95903.18502747886</v>
       </c>
       <c r="AE8" t="n">
-        <v>114415.6427907097</v>
+        <v>131218.9687044599</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.959180460773928e-06</v>
+        <v>1.102604405186315e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.550455729166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>103495.9744261572</v>
+        <v>118695.6144983204</v>
       </c>
     </row>
     <row r="9">
@@ -4494,28 +4494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>82.14250765852927</v>
+        <v>94.42344912677889</v>
       </c>
       <c r="AB9" t="n">
-        <v>112.3910028500324</v>
+        <v>129.1943287637826</v>
       </c>
       <c r="AC9" t="n">
-        <v>101.6645632798175</v>
+        <v>116.8642033519807</v>
       </c>
       <c r="AD9" t="n">
-        <v>82142.50765852927</v>
+        <v>94423.4491267789</v>
       </c>
       <c r="AE9" t="n">
-        <v>112391.0028500324</v>
+        <v>129194.3287637826</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.015386813003205e-06</v>
+        <v>1.113004051912134e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.526041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>101664.5632798175</v>
+        <v>116864.2033519807</v>
       </c>
     </row>
     <row r="10">
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>80.63702658765308</v>
+        <v>92.91796805590272</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.3311372317233</v>
+        <v>127.1344631454735</v>
       </c>
       <c r="AC10" t="n">
-        <v>99.80128834507956</v>
+        <v>115.0009284172428</v>
       </c>
       <c r="AD10" t="n">
-        <v>80637.02658765308</v>
+        <v>92917.96805590272</v>
       </c>
       <c r="AE10" t="n">
-        <v>110331.1372317233</v>
+        <v>127134.4631454735</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.074114048139777e-06</v>
+        <v>1.123870127976155e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.501627604166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>99801.28834507955</v>
+        <v>115000.9284172428</v>
       </c>
     </row>
     <row r="11">
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>78.94186718448641</v>
+        <v>91.05221645214384</v>
       </c>
       <c r="AB11" t="n">
-        <v>108.011745351157</v>
+        <v>124.5816594900604</v>
       </c>
       <c r="AC11" t="n">
-        <v>97.70325597030684</v>
+        <v>112.691760759819</v>
       </c>
       <c r="AD11" t="n">
-        <v>78941.86718448641</v>
+        <v>91052.21645214384</v>
       </c>
       <c r="AE11" t="n">
-        <v>108011.745351157</v>
+        <v>124581.6594900604</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.136202460486072e-06</v>
+        <v>1.135358109824444e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.477213541666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>97703.25597030684</v>
+        <v>112691.760759819</v>
       </c>
     </row>
     <row r="12">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>77.87973990791092</v>
+        <v>89.99008917556836</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.5584959535988</v>
+        <v>123.1284100925021</v>
       </c>
       <c r="AC12" t="n">
-        <v>96.38870265560276</v>
+        <v>111.377207445115</v>
       </c>
       <c r="AD12" t="n">
-        <v>77879.73990791092</v>
+        <v>89990.08917556836</v>
       </c>
       <c r="AE12" t="n">
-        <v>106558.4959535988</v>
+        <v>123128.4100925021</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.173548873927453e-06</v>
+        <v>1.142268174094091e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.4609375</v>
       </c>
       <c r="AH12" t="n">
-        <v>96388.70265560276</v>
+        <v>111377.207445115</v>
       </c>
     </row>
     <row r="13">
@@ -4918,28 +4918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>77.73283126153089</v>
+        <v>89.84318052918832</v>
       </c>
       <c r="AB13" t="n">
-        <v>106.3574890624697</v>
+        <v>122.927403201373</v>
       </c>
       <c r="AC13" t="n">
-        <v>96.20687958004798</v>
+        <v>111.1953843695602</v>
       </c>
       <c r="AD13" t="n">
-        <v>77732.8312615309</v>
+        <v>89843.18052918832</v>
       </c>
       <c r="AE13" t="n">
-        <v>106357.4890624697</v>
+        <v>122927.403201373</v>
       </c>
       <c r="AF13" t="n">
-        <v>6.170374428784935e-06</v>
+        <v>1.141680818631171e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.462565104166667</v>
       </c>
       <c r="AH13" t="n">
-        <v>96206.87958004799</v>
+        <v>111195.3843695602</v>
       </c>
     </row>
   </sheetData>
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.7977117727543</v>
+        <v>190.2398846921679</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.2199878430789</v>
+        <v>260.2946030270838</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.4389925121659</v>
+        <v>235.4524514400247</v>
       </c>
       <c r="AD2" t="n">
-        <v>166797.7117727543</v>
+        <v>190239.8846921679</v>
       </c>
       <c r="AE2" t="n">
-        <v>228219.9878430789</v>
+        <v>260294.6030270838</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.736520405675845e-06</v>
+        <v>7.122384559374883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.207356770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>206438.9925121659</v>
+        <v>235452.4514400247</v>
       </c>
     </row>
     <row r="3">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.9422859158611</v>
+        <v>118.7060875571292</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.3231535506967</v>
+        <v>162.4189059385721</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.3582771416937</v>
+        <v>146.9178735122058</v>
       </c>
       <c r="AD3" t="n">
-        <v>106942.2859158611</v>
+        <v>118706.0875571292</v>
       </c>
       <c r="AE3" t="n">
-        <v>146323.1535506967</v>
+        <v>162418.9059385721</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.208585429273671e-06</v>
+        <v>9.928367681678368e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.017578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>132358.2771416937</v>
+        <v>146917.8735122058</v>
       </c>
     </row>
     <row r="4">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.13233438741823</v>
+        <v>108.5744177982807</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.4818156823424</v>
+        <v>148.5563083967989</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.3649546769049</v>
+        <v>134.3783028235372</v>
       </c>
       <c r="AD4" t="n">
-        <v>85132.33438741823</v>
+        <v>108574.4177982807</v>
       </c>
       <c r="AE4" t="n">
-        <v>116481.8156823424</v>
+        <v>148556.3083967989</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.745119856547862e-06</v>
+        <v>1.095108510470808e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.736002604166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>105364.9546769049</v>
+        <v>134378.3028235372</v>
       </c>
     </row>
     <row r="5">
@@ -5533,28 +5533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.59944879071428</v>
+        <v>92.44850177800298</v>
       </c>
       <c r="AB5" t="n">
-        <v>110.2797216321363</v>
+        <v>126.492118672661</v>
       </c>
       <c r="AC5" t="n">
-        <v>99.75477977815483</v>
+        <v>114.4198883993792</v>
       </c>
       <c r="AD5" t="n">
-        <v>80599.44879071428</v>
+        <v>92448.50177800297</v>
       </c>
       <c r="AE5" t="n">
-        <v>110279.7216321363</v>
+        <v>126492.118672661</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.014208049956663e-06</v>
+        <v>1.146400873037159e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.613932291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>99754.77977815483</v>
+        <v>114419.8883993792</v>
       </c>
     </row>
     <row r="6">
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>77.63336910003031</v>
+        <v>89.48242208731901</v>
       </c>
       <c r="AB6" t="n">
-        <v>106.2214005451438</v>
+        <v>122.4337975856685</v>
       </c>
       <c r="AC6" t="n">
-        <v>96.08377915981417</v>
+        <v>110.7488877810385</v>
       </c>
       <c r="AD6" t="n">
-        <v>77633.36910003031</v>
+        <v>89482.42208731901</v>
       </c>
       <c r="AE6" t="n">
-        <v>106221.4005451438</v>
+        <v>122433.7975856685</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.178017660876019e-06</v>
+        <v>1.177625512991405e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.5439453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>96083.77915981418</v>
+        <v>110748.8877810385</v>
       </c>
     </row>
     <row r="7">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>75.36836229521236</v>
+        <v>87.04682308190887</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.1223183097456</v>
+        <v>119.1013035754234</v>
       </c>
       <c r="AC7" t="n">
-        <v>93.28046898337212</v>
+        <v>107.7344423219454</v>
       </c>
       <c r="AD7" t="n">
-        <v>75368.36229521237</v>
+        <v>87046.82308190886</v>
       </c>
       <c r="AE7" t="n">
-        <v>103122.3183097455</v>
+        <v>119101.3035754234</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.287352849296251e-06</v>
+        <v>1.19846648730049e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>93280.46898337212</v>
+        <v>107734.4423219454</v>
       </c>
     </row>
     <row r="8">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>73.18433589560867</v>
+        <v>84.86279668230517</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.1340370373648</v>
+        <v>116.1130223030426</v>
       </c>
       <c r="AC8" t="n">
-        <v>90.57738508154729</v>
+        <v>105.0313584201206</v>
       </c>
       <c r="AD8" t="n">
-        <v>73184.33589560867</v>
+        <v>84862.79668230517</v>
       </c>
       <c r="AE8" t="n">
-        <v>100134.0370373648</v>
+        <v>116113.0223030426</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.387705553155456e-06</v>
+        <v>1.217595261423404e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.4609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>90577.3850815473</v>
+        <v>105031.3584201206</v>
       </c>
     </row>
     <row r="9">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>71.93195682536333</v>
+        <v>83.61041761205983</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.42047674239078</v>
+        <v>114.3994620080686</v>
       </c>
       <c r="AC9" t="n">
-        <v>89.02736457612811</v>
+        <v>103.4813379147014</v>
       </c>
       <c r="AD9" t="n">
-        <v>71931.95682536333</v>
+        <v>83610.41761205983</v>
       </c>
       <c r="AE9" t="n">
-        <v>98420.47674239078</v>
+        <v>114399.4620080686</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.432521390105092e-06</v>
+        <v>1.226137851599566e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.444661458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>89027.36457612811</v>
+        <v>103481.3379147014</v>
       </c>
     </row>
     <row r="10">
@@ -6063,28 +6063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>72.01395622012818</v>
+        <v>83.69241700682467</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.53267193186598</v>
+        <v>114.5116571975438</v>
       </c>
       <c r="AC10" t="n">
-        <v>89.12885201418676</v>
+        <v>103.5828253527601</v>
       </c>
       <c r="AD10" t="n">
-        <v>72013.95622012818</v>
+        <v>83692.41700682467</v>
       </c>
       <c r="AE10" t="n">
-        <v>98532.67193186597</v>
+        <v>114511.6571975438</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.433970177937516e-06</v>
+        <v>1.226414012919916e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.443033854166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>89128.85201418676</v>
+        <v>103582.8253527601</v>
       </c>
     </row>
   </sheetData>
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.09820539060951</v>
+        <v>92.93974951841936</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.64794536372952</v>
+        <v>127.1642655034191</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.23312391150058</v>
+        <v>115.0278864799739</v>
       </c>
       <c r="AD2" t="n">
-        <v>72098.20539060951</v>
+        <v>92939.74951841937</v>
       </c>
       <c r="AE2" t="n">
-        <v>98647.94536372952</v>
+        <v>127164.2655034191</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.911068473603427e-06</v>
+        <v>1.258902890481109e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.967122395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>89233.12391150059</v>
+        <v>115027.8864799739</v>
       </c>
     </row>
     <row r="3">
@@ -6466,28 +6466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.75113742048176</v>
+        <v>70.29992076624413</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.7541422528144</v>
+        <v>96.1874530059556</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.95164165888424</v>
+        <v>87.00745749102911</v>
       </c>
       <c r="AD3" t="n">
-        <v>59751.13742048176</v>
+        <v>70299.92076624413</v>
       </c>
       <c r="AE3" t="n">
-        <v>81754.1422528144</v>
+        <v>96187.4530059556</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.955630987663966e-06</v>
+        <v>1.481367369468508e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.521158854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>73951.64165888424</v>
+        <v>87007.45749102911</v>
       </c>
     </row>
     <row r="4">
@@ -6572,28 +6572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.133650265303</v>
+        <v>68.51184141047317</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.54102496860287</v>
+        <v>93.74092394689721</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.94974118214753</v>
+        <v>84.79442173164136</v>
       </c>
       <c r="AD4" t="n">
-        <v>58133.650265303</v>
+        <v>68511.84141047316</v>
       </c>
       <c r="AE4" t="n">
-        <v>79541.02496860287</v>
+        <v>93740.92394689721</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.092290631476262e-06</v>
+        <v>1.510472297177549e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.473958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>71949.74118214754</v>
+        <v>84794.42173164137</v>
       </c>
     </row>
   </sheetData>
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.2943112560943</v>
+        <v>125.0673111479025</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.3318336839225</v>
+        <v>171.1226126928421</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.8433218376415</v>
+        <v>154.7909107095802</v>
       </c>
       <c r="AD2" t="n">
-        <v>103294.3112560943</v>
+        <v>125067.3111479025</v>
       </c>
       <c r="AE2" t="n">
-        <v>141331.8336839225</v>
+        <v>171122.6126928421</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.020213349697675e-06</v>
+        <v>1.019276874659254e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.343098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>127843.3218376415</v>
+        <v>154790.9107095802</v>
       </c>
     </row>
     <row r="3">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.15870382767945</v>
+        <v>94.01695506550823</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.73072199433126</v>
+        <v>128.6381456559</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.30800045665545</v>
+        <v>116.3611015793064</v>
       </c>
       <c r="AD3" t="n">
-        <v>72158.70382767945</v>
+        <v>94016.95506550823</v>
       </c>
       <c r="AE3" t="n">
-        <v>98730.72199433127</v>
+        <v>128638.1456559</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.229230021263806e-06</v>
+        <v>1.264749058521534e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.693684895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>89308.00045665546</v>
+        <v>116361.1015793064</v>
       </c>
     </row>
     <row r="4">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.1109682459132</v>
+        <v>77.16810514668504</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.45594336409928</v>
+        <v>105.5848058781801</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.82295508516543</v>
+        <v>95.5079401943991</v>
       </c>
       <c r="AD4" t="n">
-        <v>66110.9682459132</v>
+        <v>77168.10514668503</v>
       </c>
       <c r="AE4" t="n">
-        <v>90455.94336409928</v>
+        <v>105584.8058781801</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.68165754598086e-06</v>
+        <v>1.356607487891113e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.511393229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>81822.95508516543</v>
+        <v>95507.9401943991</v>
       </c>
     </row>
     <row r="5">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.2470708076795</v>
+        <v>74.1336155078591</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.537432542872</v>
+        <v>101.4328832821059</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.27842143705035</v>
+        <v>91.75227126363296</v>
       </c>
       <c r="AD5" t="n">
-        <v>63247.0708076795</v>
+        <v>74133.61550785911</v>
       </c>
       <c r="AE5" t="n">
-        <v>86537.432542872</v>
+        <v>101432.8832821059</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.863948307990831e-06</v>
+        <v>1.393618814947954e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.444661458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>78278.42143705036</v>
+        <v>91752.27126363297</v>
       </c>
     </row>
     <row r="6">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.89885155895245</v>
+        <v>73.78539625913207</v>
       </c>
       <c r="AB6" t="n">
-        <v>86.06098360441486</v>
+        <v>100.9564343436488</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.84744411657913</v>
+        <v>91.32129394316175</v>
       </c>
       <c r="AD6" t="n">
-        <v>62898.85155895245</v>
+        <v>73785.39625913207</v>
       </c>
       <c r="AE6" t="n">
-        <v>86060.98360441485</v>
+        <v>100956.4343436488</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.885394279992005e-06</v>
+        <v>1.397973088719347e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.4365234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>77847.44411657912</v>
+        <v>91321.29394316174</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.58617264222883</v>
+        <v>79.59380838164394</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.52843016547646</v>
+        <v>108.9037600587232</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.74747121637286</v>
+        <v>98.51013804613368</v>
       </c>
       <c r="AD2" t="n">
-        <v>59586.17264222883</v>
+        <v>79593.80838164393</v>
       </c>
       <c r="AE2" t="n">
-        <v>81528.43016547647</v>
+        <v>108903.7600587232</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.65381533684643e-06</v>
+        <v>1.481674710505666e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.737630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73747.47121637285</v>
+        <v>98510.13804613368</v>
       </c>
     </row>
     <row r="3">
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.1948146724343</v>
+        <v>64.32664382399928</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.15173634128026</v>
+        <v>88.01455197120006</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.07479869750078</v>
+        <v>79.6145666602894</v>
       </c>
       <c r="AD3" t="n">
-        <v>54194.8146724343</v>
+        <v>64326.64382399927</v>
       </c>
       <c r="AE3" t="n">
-        <v>74151.73634128025</v>
+        <v>88014.55197120007</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.230388292907529e-06</v>
+        <v>1.610066245964496e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.51953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>67074.79869750078</v>
+        <v>79614.56666028941</v>
       </c>
     </row>
   </sheetData>
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.9738174048582</v>
+        <v>201.6430267140209</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.5116286238982</v>
+        <v>275.8968850124965</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.2712205588213</v>
+        <v>249.5656735306948</v>
       </c>
       <c r="AD2" t="n">
-        <v>177973.8174048582</v>
+        <v>201643.026714021</v>
       </c>
       <c r="AE2" t="n">
-        <v>243511.6286238982</v>
+        <v>275896.8850124964</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.556315180024026e-06</v>
+        <v>6.724151536561282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.3798828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>220271.2205588213</v>
+        <v>249565.6735306948</v>
       </c>
     </row>
     <row r="3">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.266495594486</v>
+        <v>123.1438154306287</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.2397280036553</v>
+        <v>168.4908009938274</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.7101820328282</v>
+        <v>152.4102754253477</v>
       </c>
       <c r="AD3" t="n">
-        <v>111266.495594486</v>
+        <v>123143.8154306287</v>
       </c>
       <c r="AE3" t="n">
-        <v>152239.7280036553</v>
+        <v>168490.8009938274</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.057847080466425e-06</v>
+        <v>9.56319350119596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.079427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>137710.1820328282</v>
+        <v>152410.2754253477</v>
       </c>
     </row>
     <row r="4">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.28675160085949</v>
+        <v>111.9558714014712</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.7978284768364</v>
+        <v>153.1829623958862</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.2690532678558</v>
+        <v>138.5633954585027</v>
       </c>
       <c r="AD4" t="n">
-        <v>88286.75160085948</v>
+        <v>111955.8714014712</v>
       </c>
       <c r="AE4" t="n">
-        <v>120797.8284768364</v>
+        <v>153182.9623958862</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.611002741373969e-06</v>
+        <v>1.060908012793299e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.776692708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>109269.0532678558</v>
+        <v>138563.3954585027</v>
       </c>
     </row>
     <row r="5">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.12349054792162</v>
+        <v>95.08606173008494</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.7332269172091</v>
+        <v>130.1009445600305</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.8786873658465</v>
+        <v>117.6842930090782</v>
       </c>
       <c r="AD5" t="n">
-        <v>83123.49054792162</v>
+        <v>95086.06173008494</v>
       </c>
       <c r="AE5" t="n">
-        <v>113733.2269172091</v>
+        <v>130100.9445600305</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.9079206960608e-06</v>
+        <v>1.117048180921665e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.63671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>102878.6873658465</v>
+        <v>117684.2930090782</v>
       </c>
     </row>
     <row r="6">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>80.27072553460799</v>
+        <v>92.23329671677129</v>
       </c>
       <c r="AB6" t="n">
-        <v>109.8299479708853</v>
+        <v>126.1976656137067</v>
       </c>
       <c r="AC6" t="n">
-        <v>99.34793188387223</v>
+        <v>114.1535375271039</v>
       </c>
       <c r="AD6" t="n">
-        <v>80270.72553460799</v>
+        <v>92233.29671677129</v>
       </c>
       <c r="AE6" t="n">
-        <v>109829.9479708853</v>
+        <v>126197.6656137067</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.062314203768685e-06</v>
+        <v>1.146240344426196e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.569986979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>99347.93188387224</v>
+        <v>114153.5375271039</v>
       </c>
     </row>
     <row r="7">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>78.14811242580792</v>
+        <v>90.11068360797121</v>
       </c>
       <c r="AB7" t="n">
-        <v>106.9256950723452</v>
+        <v>123.2934127151665</v>
       </c>
       <c r="AC7" t="n">
-        <v>96.72085680582326</v>
+        <v>111.526462449055</v>
       </c>
       <c r="AD7" t="n">
-        <v>78148.11242580792</v>
+        <v>90110.68360797121</v>
       </c>
       <c r="AE7" t="n">
-        <v>106925.6950723452</v>
+        <v>123293.4127151665</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.174495971303491e-06</v>
+        <v>1.167451265459866e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.522786458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>96720.85680582326</v>
+        <v>111526.462449055</v>
       </c>
     </row>
     <row r="8">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>76.06583481189027</v>
+        <v>87.85781379346139</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.0766309773796</v>
+        <v>120.2109368453541</v>
       </c>
       <c r="AC8" t="n">
-        <v>94.14370338939372</v>
+        <v>108.7381737499744</v>
       </c>
       <c r="AD8" t="n">
-        <v>76065.83481189026</v>
+        <v>87857.81379346139</v>
       </c>
       <c r="AE8" t="n">
-        <v>104076.6309773796</v>
+        <v>120210.9368453541</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.260738098051663e-06</v>
+        <v>1.183757613455887e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.488606770833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>94143.70338939372</v>
+        <v>108738.1737499744</v>
       </c>
     </row>
     <row r="9">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>74.26515585537983</v>
+        <v>86.05713483695092</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.6128625887342</v>
+        <v>117.7471684567087</v>
       </c>
       <c r="AC9" t="n">
-        <v>91.91507359783928</v>
+        <v>106.5095439584199</v>
       </c>
       <c r="AD9" t="n">
-        <v>74265.15585537982</v>
+        <v>86057.13483695092</v>
       </c>
       <c r="AE9" t="n">
-        <v>101612.8625887342</v>
+        <v>117747.1684567088</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.319700528769616e-06</v>
+        <v>1.194906015637407e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.4658203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>91915.07359783928</v>
+        <v>106509.5439584199</v>
       </c>
     </row>
     <row r="10">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>73.67147152785797</v>
+        <v>85.46345050942907</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.8005575003153</v>
+        <v>116.9348633682898</v>
       </c>
       <c r="AC10" t="n">
-        <v>91.18029376698135</v>
+        <v>105.774764127562</v>
       </c>
       <c r="AD10" t="n">
-        <v>73671.47152785797</v>
+        <v>85463.45050942907</v>
       </c>
       <c r="AE10" t="n">
-        <v>100800.5575003152</v>
+        <v>116934.8633682897</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.340375666813573e-06</v>
+        <v>1.198815195623134e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.457682291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>91180.29376698135</v>
+        <v>105774.764127562</v>
       </c>
     </row>
     <row r="11">
@@ -8947,28 +8947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>73.34639952452967</v>
+        <v>85.13837850610076</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.355779644197</v>
+        <v>116.4900855121716</v>
       </c>
       <c r="AC11" t="n">
-        <v>90.7779648852013</v>
+        <v>105.3724352457819</v>
       </c>
       <c r="AD11" t="n">
-        <v>73346.39952452967</v>
+        <v>85138.37850610077</v>
       </c>
       <c r="AE11" t="n">
-        <v>100355.779644197</v>
+        <v>116490.0855121716</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.375121384915225e-06</v>
+        <v>1.205384789765815e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.443033854166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>90777.96488520131</v>
+        <v>105372.4352457819</v>
       </c>
     </row>
   </sheetData>
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.06767469685953</v>
+        <v>62.95260453622979</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.60953370079341</v>
+        <v>86.13453079933964</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.67978171252651</v>
+        <v>77.91397207044446</v>
       </c>
       <c r="AD2" t="n">
-        <v>53067.67469685953</v>
+        <v>62952.60453622979</v>
       </c>
       <c r="AE2" t="n">
-        <v>72609.5337007934</v>
+        <v>86134.53079933964</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.107685417168441e-06</v>
+        <v>1.629484324395501e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.623697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>65679.7817125265</v>
+        <v>77913.97207044446</v>
       </c>
     </row>
     <row r="3">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.20204166499144</v>
+        <v>62.08697150436171</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.42513639755795</v>
+        <v>84.95013349610421</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.60842162559941</v>
+        <v>76.84261198351737</v>
       </c>
       <c r="AD3" t="n">
-        <v>52202.04166499144</v>
+        <v>62086.9715043617</v>
       </c>
       <c r="AE3" t="n">
-        <v>71425.13639755794</v>
+        <v>84950.13349610422</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.239419529947963e-06</v>
+        <v>1.65968524905149e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.574869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>64608.42162559941</v>
+        <v>76842.61198351737</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.4861216943607</v>
+        <v>149.2767030276743</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.0638918760089</v>
+        <v>204.2469707057204</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.5469169321086</v>
+        <v>184.7539264840483</v>
       </c>
       <c r="AD2" t="n">
-        <v>126486.1216943607</v>
+        <v>149276.7030276743</v>
       </c>
       <c r="AE2" t="n">
-        <v>173063.8918760089</v>
+        <v>204246.9707057204</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.329328745801635e-06</v>
+        <v>8.485424510732889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.741861979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>156546.9169321086</v>
+        <v>184753.9264840483</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.15106416287362</v>
+        <v>105.8563046416157</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.7709543536484</v>
+        <v>144.8372660611623</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.9128141487029</v>
+        <v>131.0142006687038</v>
       </c>
       <c r="AD3" t="n">
-        <v>83151.06416287362</v>
+        <v>105856.3046416157</v>
       </c>
       <c r="AE3" t="n">
-        <v>113770.9543536484</v>
+        <v>144837.2660611623</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.699826745736817e-06</v>
+        <v>1.117158165041369e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.841796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>102912.8141487029</v>
+        <v>131014.2006687038</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.63509158707235</v>
+        <v>87.11572310830083</v>
       </c>
       <c r="AB4" t="n">
-        <v>103.4872690941341</v>
+        <v>119.1955756311874</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.61058937711039</v>
+        <v>107.8197171850191</v>
       </c>
       <c r="AD4" t="n">
-        <v>75635.09158707235</v>
+        <v>87115.72310830082</v>
       </c>
       <c r="AE4" t="n">
-        <v>103487.2690941341</v>
+        <v>119195.5756311874</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.182367030494711e-06</v>
+        <v>1.211735393986419e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.620442708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>93610.58937711039</v>
+        <v>107819.7171850191</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>72.14907871384464</v>
+        <v>83.62971023507311</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.71755248895244</v>
+        <v>114.4258590260058</v>
       </c>
       <c r="AC5" t="n">
-        <v>89.29608783038645</v>
+        <v>103.5052156382951</v>
       </c>
       <c r="AD5" t="n">
-        <v>72149.07871384465</v>
+        <v>83629.7102350731</v>
       </c>
       <c r="AE5" t="n">
-        <v>98717.55248895244</v>
+        <v>114425.8590260058</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.412541433184957e-06</v>
+        <v>1.256849258814198e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.526041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>89296.08783038646</v>
+        <v>103505.2156382951</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.54365176883174</v>
+        <v>80.85369108946801</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.15269239946306</v>
+        <v>110.6275871616696</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.07145298452429</v>
+        <v>100.0694455097819</v>
       </c>
       <c r="AD6" t="n">
-        <v>69543.65176883174</v>
+        <v>80853.69108946802</v>
       </c>
       <c r="AE6" t="n">
-        <v>95152.69239946306</v>
+        <v>110627.5871616696</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.540615128067079e-06</v>
+        <v>1.28195152601409e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.4755859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>86071.45298452428</v>
+        <v>100069.4455097819</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>67.76482483186366</v>
+        <v>79.07486415249994</v>
       </c>
       <c r="AB7" t="n">
-        <v>92.71882290799869</v>
+        <v>108.1937176702052</v>
       </c>
       <c r="AC7" t="n">
-        <v>83.86986858136719</v>
+        <v>97.86786110662483</v>
       </c>
       <c r="AD7" t="n">
-        <v>67764.82483186366</v>
+        <v>79074.86415249994</v>
       </c>
       <c r="AE7" t="n">
-        <v>92718.82290799869</v>
+        <v>108193.7176702052</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.633461093354584e-06</v>
+        <v>1.300149206897928e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.44140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>83869.86858136719</v>
+        <v>97867.86110662483</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>67.92890021125167</v>
+        <v>79.23893953188794</v>
       </c>
       <c r="AB8" t="n">
-        <v>92.94331808057213</v>
+        <v>108.4182128427786</v>
       </c>
       <c r="AC8" t="n">
-        <v>84.07293824975123</v>
+        <v>98.07093077500886</v>
       </c>
       <c r="AD8" t="n">
-        <v>67928.90021125168</v>
+        <v>79238.93953188794</v>
       </c>
       <c r="AE8" t="n">
-        <v>92943.31808057212</v>
+        <v>108418.2128427786</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.622713650427413e-06</v>
+        <v>1.298042722937098e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.4462890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>84072.93824975123</v>
+        <v>98070.93077500886</v>
       </c>
     </row>
   </sheetData>
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.7595661513113</v>
+        <v>179.9660693372996</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.4853541520975</v>
+        <v>246.2375156098153</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.015172983968</v>
+        <v>222.7369527166097</v>
       </c>
       <c r="AD2" t="n">
-        <v>156759.5661513113</v>
+        <v>179966.0693372996</v>
       </c>
       <c r="AE2" t="n">
-        <v>214485.3541520975</v>
+        <v>246237.5156098153</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.918168794569822e-06</v>
+        <v>7.533475214129405e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.049479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>194015.172983968</v>
+        <v>222736.9527166097</v>
       </c>
     </row>
     <row r="3">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.97525104590851</v>
+        <v>114.1816647233457</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.4763520257752</v>
+        <v>156.2283910139445</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.5965036921252</v>
+        <v>141.3181726435404</v>
       </c>
       <c r="AD3" t="n">
-        <v>90975.2510459085</v>
+        <v>114181.6647233457</v>
       </c>
       <c r="AE3" t="n">
-        <v>124476.3520257752</v>
+        <v>156228.3910139445</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.367652365555885e-06</v>
+        <v>1.032040174226796e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.955729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>112596.5036921252</v>
+        <v>141318.1726435404</v>
       </c>
     </row>
     <row r="4">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.01306807489352</v>
+        <v>105.2194817523308</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.2138979012307</v>
+        <v>143.9659368894001</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.5043609787609</v>
+        <v>130.2260299301761</v>
       </c>
       <c r="AD4" t="n">
-        <v>82013.06807489353</v>
+        <v>105219.4817523308</v>
       </c>
       <c r="AE4" t="n">
-        <v>112213.8979012307</v>
+        <v>143965.9368894001</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.882177106851019e-06</v>
+        <v>1.130968004772922e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.698567708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>101504.3609787609</v>
+        <v>130226.0299301761</v>
       </c>
     </row>
     <row r="5">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>77.90017177208117</v>
+        <v>89.63138989265721</v>
       </c>
       <c r="AB5" t="n">
-        <v>106.5864517315468</v>
+        <v>122.6376219089279</v>
       </c>
       <c r="AC5" t="n">
-        <v>96.41399037333953</v>
+        <v>110.9332593969553</v>
       </c>
       <c r="AD5" t="n">
-        <v>77900.17177208117</v>
+        <v>89631.38989265721</v>
       </c>
       <c r="AE5" t="n">
-        <v>106586.4517315468</v>
+        <v>122637.6219089279</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.131882974286463e-06</v>
+        <v>1.178979028845052e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.587890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>96413.99037333953</v>
+        <v>110933.2593969553</v>
       </c>
     </row>
     <row r="6">
@@ -11004,28 +11004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>74.97703653616261</v>
+        <v>86.70825465673866</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.5868891421399</v>
+        <v>118.638059319521</v>
       </c>
       <c r="AC6" t="n">
-        <v>92.79614042404303</v>
+        <v>107.3154094476588</v>
       </c>
       <c r="AD6" t="n">
-        <v>74977.03653616262</v>
+        <v>86708.25465673866</v>
       </c>
       <c r="AE6" t="n">
-        <v>102586.8891421399</v>
+        <v>118638.059319521</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.299003574358448e-06</v>
+        <v>1.211111358114724e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.51953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>92796.14042404303</v>
+        <v>107315.4094476588</v>
       </c>
     </row>
     <row r="7">
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>72.64434284274289</v>
+        <v>84.20496876272672</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.39519471962198</v>
+        <v>115.2129531221562</v>
       </c>
       <c r="AC7" t="n">
-        <v>89.90905683763796</v>
+        <v>104.2171905786027</v>
       </c>
       <c r="AD7" t="n">
-        <v>72644.34284274289</v>
+        <v>84204.96876272673</v>
       </c>
       <c r="AE7" t="n">
-        <v>99395.19471962198</v>
+        <v>115212.9531221562</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.406452174871473e-06</v>
+        <v>1.231770533642833e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.477213541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>89909.05683763797</v>
+        <v>104217.1905786027</v>
       </c>
     </row>
     <row r="8">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>70.55471771457162</v>
+        <v>82.11534363455547</v>
       </c>
       <c r="AB8" t="n">
-        <v>96.53607743150511</v>
+        <v>112.3538358340393</v>
       </c>
       <c r="AC8" t="n">
-        <v>87.32280969070175</v>
+        <v>101.6309434316665</v>
       </c>
       <c r="AD8" t="n">
-        <v>70554.71771457163</v>
+        <v>82115.34363455547</v>
       </c>
       <c r="AE8" t="n">
-        <v>96536.07743150511</v>
+        <v>112353.8358340393</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.498202749356733e-06</v>
+        <v>1.249411444869649e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.44140625</v>
       </c>
       <c r="AH8" t="n">
-        <v>87322.80969070175</v>
+        <v>101630.9434316665</v>
       </c>
     </row>
     <row r="9">
@@ -11322,28 +11322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>70.69857889782402</v>
+        <v>82.25920481780786</v>
       </c>
       <c r="AB9" t="n">
-        <v>96.73291464913841</v>
+        <v>112.5506730516726</v>
       </c>
       <c r="AC9" t="n">
-        <v>87.50086104054695</v>
+        <v>101.8089947815117</v>
       </c>
       <c r="AD9" t="n">
-        <v>70698.57889782402</v>
+        <v>82259.20481780785</v>
       </c>
       <c r="AE9" t="n">
-        <v>96732.9146491384</v>
+        <v>112550.6730516726</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.489622461838453e-06</v>
+        <v>1.247761710344718e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.444661458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>87500.86104054695</v>
+        <v>101808.9947815117</v>
       </c>
     </row>
   </sheetData>
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.1102234847796</v>
+        <v>239.3034489483162</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.9043683624008</v>
+        <v>327.4255361740023</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.3815654872054</v>
+        <v>296.176502546279</v>
       </c>
       <c r="AD2" t="n">
-        <v>203110.2234847796</v>
+        <v>239303.4489483162</v>
       </c>
       <c r="AE2" t="n">
-        <v>277904.3683624007</v>
+        <v>327425.5361740023</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.224008658948019e-06</v>
+        <v>6.006083602091673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.7509765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>251381.5654872055</v>
+        <v>296176.5025462791</v>
       </c>
     </row>
     <row r="3">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.7482443283972</v>
+        <v>131.8411892763176</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.8448308097321</v>
+        <v>180.3909315905468</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.2077101149609</v>
+        <v>163.1746742598581</v>
       </c>
       <c r="AD3" t="n">
-        <v>119748.2443283972</v>
+        <v>131841.1892763176</v>
       </c>
       <c r="AE3" t="n">
-        <v>163844.8308097321</v>
+        <v>180390.9315905469</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.786274582366214e-06</v>
+        <v>8.916466525135772e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.199869791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>148207.7101149608</v>
+        <v>163174.6742598581</v>
       </c>
     </row>
     <row r="4">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.60021998972603</v>
+        <v>118.7005900138932</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.4361944570468</v>
+        <v>162.411383957382</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.0829857229405</v>
+        <v>146.9110694183433</v>
       </c>
       <c r="AD4" t="n">
-        <v>94600.21998972603</v>
+        <v>118700.5900138932</v>
       </c>
       <c r="AE4" t="n">
-        <v>129436.1944570468</v>
+        <v>162411.383957382</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.364501198840997e-06</v>
+        <v>9.993658855207036e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.854817708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>117082.9857229405</v>
+        <v>146911.0694183433</v>
       </c>
     </row>
     <row r="5">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.0797428804</v>
+        <v>113.1801129045672</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.8828341298093</v>
+        <v>154.8580236301445</v>
       </c>
       <c r="AC5" t="n">
-        <v>110.2505075041243</v>
+        <v>140.0785911995272</v>
       </c>
       <c r="AD5" t="n">
-        <v>89079.74288040001</v>
+        <v>113180.1129045672</v>
       </c>
       <c r="AE5" t="n">
-        <v>121882.8341298093</v>
+        <v>154858.0236301445</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.653426282268339e-06</v>
+        <v>1.053190437169772e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.7099609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>110250.5075041243</v>
+        <v>140078.5911995271</v>
       </c>
     </row>
     <row r="6">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.49712221201297</v>
+        <v>97.67531850595397</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.9809344772557</v>
+        <v>133.6436799107197</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.8164382745495</v>
+        <v>120.8889146701591</v>
       </c>
       <c r="AD6" t="n">
-        <v>85497.12221201297</v>
+        <v>97675.31850595397</v>
       </c>
       <c r="AE6" t="n">
-        <v>116980.9344772557</v>
+        <v>133643.6799107197</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.841933429533798e-06</v>
+        <v>1.088307888946021e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.6220703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>105816.4382745495</v>
+        <v>120888.9146701591</v>
       </c>
     </row>
     <row r="7">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>83.53565639205306</v>
+        <v>95.71385268599406</v>
       </c>
       <c r="AB7" t="n">
-        <v>114.2971704086231</v>
+        <v>130.9599158420872</v>
       </c>
       <c r="AC7" t="n">
-        <v>103.3888088819398</v>
+        <v>118.4612852775494</v>
       </c>
       <c r="AD7" t="n">
-        <v>83535.65639205306</v>
+        <v>95713.85268599406</v>
       </c>
       <c r="AE7" t="n">
-        <v>114297.1704086231</v>
+        <v>130959.9158420872</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.943292489745931e-06</v>
+        <v>1.107190313091313e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>103388.8088819398</v>
+        <v>118461.2852775494</v>
       </c>
     </row>
     <row r="8">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>80.95254099983467</v>
+        <v>93.13073729377567</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.7628379699834</v>
+        <v>127.4255834034474</v>
       </c>
       <c r="AC8" t="n">
-        <v>100.191788170776</v>
+        <v>115.2642645663856</v>
       </c>
       <c r="AD8" t="n">
-        <v>80952.54099983467</v>
+        <v>93130.73729377567</v>
       </c>
       <c r="AE8" t="n">
-        <v>110762.8379699834</v>
+        <v>127425.5834034474</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.068179651214362e-06</v>
+        <v>1.130455844048419e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.5244140625</v>
       </c>
       <c r="AH8" t="n">
-        <v>100191.788170776</v>
+        <v>115264.2645663857</v>
       </c>
     </row>
     <row r="9">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>79.39974376374143</v>
+        <v>91.40734785709023</v>
       </c>
       <c r="AB9" t="n">
-        <v>108.6382322869825</v>
+        <v>125.0675659455996</v>
       </c>
       <c r="AC9" t="n">
-        <v>98.2699518722572</v>
+        <v>113.1312929852158</v>
       </c>
       <c r="AD9" t="n">
-        <v>79399.74376374143</v>
+        <v>91407.34785709022</v>
       </c>
       <c r="AE9" t="n">
-        <v>108638.2322869825</v>
+        <v>125067.5659455996</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.127470466380232e-06</v>
+        <v>1.141501273214189e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>98269.9518722572</v>
+        <v>113131.2929852158</v>
       </c>
     </row>
     <row r="10">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>77.79222331345382</v>
+        <v>89.79982740680261</v>
       </c>
       <c r="AB10" t="n">
-        <v>106.438751888103</v>
+        <v>122.8680855467201</v>
       </c>
       <c r="AC10" t="n">
-        <v>96.28038679565597</v>
+        <v>111.1417279086145</v>
       </c>
       <c r="AD10" t="n">
-        <v>77792.22331345381</v>
+        <v>89799.82740680261</v>
       </c>
       <c r="AE10" t="n">
-        <v>106438.751888103</v>
+        <v>122868.0855467201</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.190243440532035e-06</v>
+        <v>1.153195402188107e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.473958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>96280.38679565597</v>
+        <v>111141.7279086145</v>
       </c>
     </row>
     <row r="11">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>76.65978901336894</v>
+        <v>88.66739310671774</v>
       </c>
       <c r="AB11" t="n">
-        <v>104.8893053192523</v>
+        <v>121.3186389778694</v>
       </c>
       <c r="AC11" t="n">
-        <v>94.87881723267395</v>
+        <v>109.7401583456325</v>
       </c>
       <c r="AD11" t="n">
-        <v>76659.78901336894</v>
+        <v>88667.39310671773</v>
       </c>
       <c r="AE11" t="n">
-        <v>104889.3053192523</v>
+        <v>121318.6389778694</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.213489204573258e-06</v>
+        <v>1.157525911718178e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.4658203125</v>
       </c>
       <c r="AH11" t="n">
-        <v>94878.81723267396</v>
+        <v>109740.1583456325</v>
       </c>
     </row>
     <row r="12">
@@ -12679,28 +12679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>76.18497029896825</v>
+        <v>88.19257439231707</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.2396374066863</v>
+        <v>120.6689710653035</v>
       </c>
       <c r="AC12" t="n">
-        <v>94.29115271386844</v>
+        <v>109.152493826827</v>
       </c>
       <c r="AD12" t="n">
-        <v>76184.97029896826</v>
+        <v>88192.57439231707</v>
       </c>
       <c r="AE12" t="n">
-        <v>104239.6374066863</v>
+        <v>120668.9710653035</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.243605174181319e-06</v>
+        <v>1.163136288437299e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.452799479166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>94291.15271386845</v>
+        <v>109152.493826827</v>
       </c>
     </row>
   </sheetData>
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.2659412528015</v>
+        <v>132.3363160304271</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.8707254120211</v>
+        <v>181.0683858589698</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.471835127132</v>
+        <v>163.7874732437161</v>
       </c>
       <c r="AD2" t="n">
-        <v>110265.9412528015</v>
+        <v>132336.3160304271</v>
       </c>
       <c r="AE2" t="n">
-        <v>150870.7254120211</v>
+        <v>181068.3858589698</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.788268269952574e-06</v>
+        <v>9.598071081979705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.460286458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>136471.835127132</v>
+        <v>163787.4732437161</v>
       </c>
     </row>
     <row r="3">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.63044633291956</v>
+        <v>97.78607245656575</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.4809132524681</v>
+        <v>133.7952183520661</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.60484012805252</v>
+        <v>121.0259904953489</v>
       </c>
       <c r="AD3" t="n">
-        <v>75630.44633291956</v>
+        <v>97786.07245656574</v>
       </c>
       <c r="AE3" t="n">
-        <v>103480.9132524681</v>
+        <v>133795.2183520661</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.055256943989656e-06</v>
+        <v>1.213774652785684e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.736002604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>93604.84012805251</v>
+        <v>121025.9904953489</v>
       </c>
     </row>
     <row r="4">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.31318821509925</v>
+        <v>80.51901255877976</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.837361997912</v>
+        <v>110.1696652310074</v>
       </c>
       <c r="AC4" t="n">
-        <v>85.78621727392814</v>
+        <v>99.65522700548455</v>
       </c>
       <c r="AD4" t="n">
-        <v>69313.18821509925</v>
+        <v>80519.01255877977</v>
       </c>
       <c r="AE4" t="n">
-        <v>94837.361997912</v>
+        <v>110169.6652310074</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.511389157079185e-06</v>
+        <v>1.305206234250884e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.545572916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>85786.21727392814</v>
+        <v>99655.22700548454</v>
       </c>
     </row>
     <row r="5">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.99654510497392</v>
+        <v>77.03177724806223</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.29938457467351</v>
+        <v>105.3982760329221</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.68133804687078</v>
+        <v>95.33921249577615</v>
       </c>
       <c r="AD5" t="n">
-        <v>65996.54510497392</v>
+        <v>77031.77724806222</v>
       </c>
       <c r="AE5" t="n">
-        <v>90299.38457467352</v>
+        <v>105398.2760329221</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.718786772718332e-06</v>
+        <v>1.346779031448342e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.4658203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>81681.33804687078</v>
+        <v>95339.21249577616</v>
       </c>
     </row>
     <row r="6">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.73944473381189</v>
+        <v>75.77467687690022</v>
       </c>
       <c r="AB6" t="n">
-        <v>88.57936438749626</v>
+        <v>103.6782558457448</v>
       </c>
       <c r="AC6" t="n">
-        <v>80.12547417229368</v>
+        <v>93.78334862119905</v>
       </c>
       <c r="AD6" t="n">
-        <v>64739.4447338119</v>
+        <v>75774.67687690022</v>
       </c>
       <c r="AE6" t="n">
-        <v>88579.36438749626</v>
+        <v>103678.2558457448</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.792195550762429e-06</v>
+        <v>1.361493801590398e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.439778645833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>80125.47417229367</v>
+        <v>93783.34862119905</v>
       </c>
     </row>
     <row r="7">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.94059653577898</v>
+        <v>75.97582867886732</v>
       </c>
       <c r="AB7" t="n">
-        <v>88.85458915713869</v>
+        <v>103.9534806153872</v>
       </c>
       <c r="AC7" t="n">
-        <v>80.37443187620191</v>
+        <v>94.03230632510727</v>
       </c>
       <c r="AD7" t="n">
-        <v>64940.59653577898</v>
+        <v>75975.82867886731</v>
       </c>
       <c r="AE7" t="n">
-        <v>88854.58915713869</v>
+        <v>103953.4806153872</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.790973768048796e-06</v>
+        <v>1.361248895568616e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.439778645833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>80374.43187620191</v>
+        <v>94032.30632510727</v>
       </c>
     </row>
   </sheetData>
@@ -13803,28 +13803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.38187897647077</v>
+        <v>100.0272174918937</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.296230065757</v>
+        <v>136.8616518617412</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.6244495121501</v>
+        <v>123.7997678946281</v>
       </c>
       <c r="AD2" t="n">
-        <v>89381.87897647078</v>
+        <v>100027.2174918937</v>
       </c>
       <c r="AE2" t="n">
-        <v>122296.230065757</v>
+        <v>136861.6518617412</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.581499376727076e-06</v>
+        <v>1.167684575145745e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.092447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>110624.4495121501</v>
+        <v>123799.7678946281</v>
       </c>
     </row>
     <row r="3">
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.25370809339049</v>
+        <v>74.98429795483401</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.91475808688384</v>
+        <v>102.5968245355173</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.52429696423069</v>
+        <v>92.80512759742091</v>
       </c>
       <c r="AD3" t="n">
-        <v>64253.70809339048</v>
+        <v>74984.29795483401</v>
       </c>
       <c r="AE3" t="n">
-        <v>87914.75808688384</v>
+        <v>102596.8245355173</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.671772688767556e-06</v>
+        <v>1.395776570366796e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.587890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>79524.29696423069</v>
+        <v>92805.12759742091</v>
       </c>
     </row>
     <row r="4">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.80713244468776</v>
+        <v>70.36713010553908</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.83075711525913</v>
+        <v>96.27941178904571</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.02094450638691</v>
+        <v>87.09063985692607</v>
       </c>
       <c r="AD4" t="n">
-        <v>59807.13244468776</v>
+        <v>70367.13010553908</v>
       </c>
       <c r="AE4" t="n">
-        <v>81830.75711525913</v>
+        <v>96279.41178904571</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.028126611769112e-06</v>
+        <v>1.470328039621925e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.4560546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>74020.94450638691</v>
+        <v>87090.63985692608</v>
       </c>
     </row>
     <row r="5">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.93108261438951</v>
+        <v>70.49108027524082</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.00035120574051</v>
+        <v>96.44900587952711</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.17435277489962</v>
+        <v>87.24404812543878</v>
       </c>
       <c r="AD5" t="n">
-        <v>59931.08261438951</v>
+        <v>70491.08027524082</v>
       </c>
       <c r="AE5" t="n">
-        <v>82000.35120574052</v>
+        <v>96449.0058795271</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.024626707168206e-06</v>
+        <v>1.469595837691741e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.457682291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>74174.35277489961</v>
+        <v>87244.04812543879</v>
       </c>
     </row>
   </sheetData>
@@ -25687,28 +25687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.76049268666686</v>
+        <v>86.20592223788299</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.9764072420483</v>
+        <v>117.9507459427008</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.38918521756968</v>
+        <v>106.6936922948717</v>
       </c>
       <c r="AD2" t="n">
-        <v>65760.49268666687</v>
+        <v>86205.92223788299</v>
       </c>
       <c r="AE2" t="n">
-        <v>89976.4072420483</v>
+        <v>117950.7459427008</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.267507332882526e-06</v>
+        <v>1.362465697820663e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.848307291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>81389.18521756967</v>
+        <v>106693.6922948717</v>
       </c>
     </row>
     <row r="3">
@@ -25793,28 +25793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.32651733608949</v>
+        <v>66.50665119296278</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.06842596977606</v>
+        <v>90.99733422855186</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.71312356145349</v>
+        <v>82.31267636536167</v>
       </c>
       <c r="AD3" t="n">
-        <v>56326.51733608949</v>
+        <v>66506.65119296277</v>
       </c>
       <c r="AE3" t="n">
-        <v>77068.42596977606</v>
+        <v>90997.33422855186</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.144104801500368e-06</v>
+        <v>1.553025344320341e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>69713.12356145348</v>
+        <v>82312.67636536167</v>
       </c>
     </row>
     <row r="4">
@@ -25899,28 +25899,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.38309386639452</v>
+        <v>66.5632277232678</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.14583647451973</v>
+        <v>91.07474473329552</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.78314611627077</v>
+        <v>82.38269892017895</v>
       </c>
       <c r="AD4" t="n">
-        <v>56383.09386639452</v>
+        <v>66563.2277232678</v>
       </c>
       <c r="AE4" t="n">
-        <v>77145.83647451973</v>
+        <v>91074.74473329552</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.164840336114732e-06</v>
+        <v>1.557532950476591e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.491861979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>69783.14611627077</v>
+        <v>82382.69892017895</v>
       </c>
     </row>
   </sheetData>
@@ -26196,28 +26196,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.52498381062782</v>
+        <v>68.4643976381371</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.76226773776226</v>
+        <v>93.6760092845155</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.29513200982502</v>
+        <v>84.73570243352906</v>
       </c>
       <c r="AD2" t="n">
-        <v>49524.98381062783</v>
+        <v>68464.3976381371</v>
       </c>
       <c r="AE2" t="n">
-        <v>67762.26773776226</v>
+        <v>93676.0092845155</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.169703277908305e-06</v>
+        <v>1.705333256696462e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.672526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>61295.13200982502</v>
+        <v>84735.70243352906</v>
       </c>
     </row>
   </sheetData>
@@ -26493,28 +26493,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.1546635863281</v>
+        <v>158.2011761886349</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.9245733216706</v>
+        <v>216.4578286045091</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.2756315871711</v>
+        <v>195.7993972430272</v>
       </c>
       <c r="AD2" t="n">
-        <v>135154.6635863281</v>
+        <v>158201.1761886349</v>
       </c>
       <c r="AE2" t="n">
-        <v>184924.5733216706</v>
+        <v>216457.8286045091</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.124398231203041e-06</v>
+        <v>8.003717274921224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.88671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>167275.6315871711</v>
+        <v>195799.3972430272</v>
       </c>
     </row>
     <row r="3">
@@ -26599,28 +26599,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.08896672015469</v>
+        <v>110.0501384678899</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.1589663605174</v>
+        <v>150.5754545211582</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.7866018517603</v>
+        <v>136.2047444756777</v>
       </c>
       <c r="AD3" t="n">
-        <v>87088.96672015468</v>
+        <v>110050.1384678899</v>
       </c>
       <c r="AE3" t="n">
-        <v>119158.9663605174</v>
+        <v>150575.4545211582</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.525917633965127e-06</v>
+        <v>1.072347526777445e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.900390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>107786.6018517603</v>
+        <v>136204.7444756777</v>
       </c>
     </row>
     <row r="4">
@@ -26705,28 +26705,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.99400061772194</v>
+        <v>101.9551723654572</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.0830766144746</v>
+        <v>139.4995647751155</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.76777947796748</v>
+        <v>126.1859221018848</v>
       </c>
       <c r="AD4" t="n">
-        <v>78994.00061772193</v>
+        <v>101955.1723654572</v>
       </c>
       <c r="AE4" t="n">
-        <v>108083.0766144746</v>
+        <v>139499.5647751155</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.020565748079373e-06</v>
+        <v>1.168337861221667e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.662760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>97767.77947796747</v>
+        <v>126185.9221018848</v>
       </c>
     </row>
     <row r="5">
@@ -26811,28 +26811,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.81643289409028</v>
+        <v>86.42503004981531</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.367144153724</v>
+        <v>118.2505389173409</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.59736758890746</v>
+        <v>106.9648734487743</v>
       </c>
       <c r="AD5" t="n">
-        <v>74816.43289409028</v>
+        <v>86425.03004981531</v>
       </c>
       <c r="AE5" t="n">
-        <v>102367.144153724</v>
+        <v>118250.5389173409</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.282710538000164e-06</v>
+        <v>1.219209107546677e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.550455729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>92597.36758890747</v>
+        <v>106964.8734487743</v>
       </c>
     </row>
     <row r="6">
@@ -26917,28 +26917,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>72.0930116935768</v>
+        <v>83.53101664870964</v>
       </c>
       <c r="AB6" t="n">
-        <v>98.64083911831965</v>
+        <v>114.2908221070897</v>
       </c>
       <c r="AC6" t="n">
-        <v>89.22669587617895</v>
+        <v>103.3830664533948</v>
       </c>
       <c r="AD6" t="n">
-        <v>72093.0116935768</v>
+        <v>83531.01664870964</v>
       </c>
       <c r="AE6" t="n">
-        <v>98640.83911831965</v>
+        <v>114290.8221070897</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.416343325348966e-06</v>
+        <v>1.245141594873137e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.498372395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>89226.69587617896</v>
+        <v>103383.0664533948</v>
       </c>
     </row>
     <row r="7">
@@ -27023,28 +27023,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>69.9127827937771</v>
+        <v>81.35078774890994</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.65775375270454</v>
+        <v>111.3077367414745</v>
       </c>
       <c r="AC7" t="n">
-        <v>86.52831199107057</v>
+        <v>100.6846825682864</v>
       </c>
       <c r="AD7" t="n">
-        <v>69912.78279377709</v>
+        <v>81350.78774890993</v>
       </c>
       <c r="AE7" t="n">
-        <v>95657.75375270454</v>
+        <v>111307.7367414745</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.54071930944737e-06</v>
+        <v>1.269277727145295e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.451171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>86528.31199107057</v>
+        <v>100684.6825682864</v>
       </c>
     </row>
     <row r="8">
@@ -27129,28 +27129,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>69.11727133843326</v>
+        <v>80.5552762935661</v>
       </c>
       <c r="AB8" t="n">
-        <v>94.56929988401514</v>
+        <v>110.2192828727851</v>
       </c>
       <c r="AC8" t="n">
-        <v>85.54373863195397</v>
+        <v>99.70010920916981</v>
       </c>
       <c r="AD8" t="n">
-        <v>69117.27133843326</v>
+        <v>80555.2762935661</v>
       </c>
       <c r="AE8" t="n">
-        <v>94569.29988401514</v>
+        <v>110219.2828727851</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.556377093668785e-06</v>
+        <v>1.272316242609487e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.444661458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>85543.73863195397</v>
+        <v>99700.10920916981</v>
       </c>
     </row>
     <row r="9">
@@ -27235,28 +27235,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>69.29165340302914</v>
+        <v>80.72965835816201</v>
       </c>
       <c r="AB9" t="n">
-        <v>94.80789711798886</v>
+        <v>110.4578801067589</v>
       </c>
       <c r="AC9" t="n">
-        <v>85.75956448079063</v>
+        <v>99.91593505800647</v>
       </c>
       <c r="AD9" t="n">
-        <v>69291.65340302915</v>
+        <v>80729.65835816201</v>
       </c>
       <c r="AE9" t="n">
-        <v>94807.89711798886</v>
+        <v>110457.8801067589</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.554210607801673e-06</v>
+        <v>1.27189581908614e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.444661458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>85759.56448079064</v>
+        <v>99915.93505800646</v>
       </c>
     </row>
   </sheetData>
@@ -27532,28 +27532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.0227315604331</v>
+        <v>214.0817338232534</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.9974845321244</v>
+        <v>292.916072836368</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.1836895172157</v>
+        <v>264.9605739552416</v>
       </c>
       <c r="AD2" t="n">
-        <v>190022.7315604331</v>
+        <v>214081.7338232534</v>
       </c>
       <c r="AE2" t="n">
-        <v>259997.4845321244</v>
+        <v>292916.072836368</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.386051049907377e-06</v>
+        <v>6.353559877870666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.560546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>235183.6895172157</v>
+        <v>264960.5739552416</v>
       </c>
     </row>
     <row r="3">
@@ -27638,28 +27638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.4571778827451</v>
+        <v>127.4440980954205</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.973604390303</v>
+        <v>174.3746374508743</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.8968253046821</v>
+        <v>157.7325667889522</v>
       </c>
       <c r="AD3" t="n">
-        <v>115457.1778827451</v>
+        <v>127444.0980954205</v>
       </c>
       <c r="AE3" t="n">
-        <v>157973.604390303</v>
+        <v>174374.6374508743</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.920221985501026e-06</v>
+        <v>9.232266299751026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.1396484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>142896.8253046821</v>
+        <v>157732.5667889522</v>
       </c>
     </row>
     <row r="4">
@@ -27744,28 +27744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.68195818257064</v>
+        <v>115.5702787362476</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.4432999078742</v>
+        <v>158.1283539677226</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.471167425477</v>
+        <v>143.0368057996252</v>
       </c>
       <c r="AD4" t="n">
-        <v>91681.95818257064</v>
+        <v>115570.2787362476</v>
       </c>
       <c r="AE4" t="n">
-        <v>125443.2999078742</v>
+        <v>158128.3539677226</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.469285697590149e-06</v>
+        <v>1.026252518247508e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.823893229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>113471.167425477</v>
+        <v>143036.8057996252</v>
       </c>
     </row>
     <row r="5">
@@ -27850,28 +27850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.33898864701466</v>
+        <v>110.2273092006916</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.1328132741503</v>
+        <v>150.8178673339985</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.8583833757409</v>
+        <v>136.4240217498891</v>
       </c>
       <c r="AD5" t="n">
-        <v>86338.98864701466</v>
+        <v>110227.3092006917</v>
       </c>
       <c r="AE5" t="n">
-        <v>118132.8132741503</v>
+        <v>150817.8673339986</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.763840443930391e-06</v>
+        <v>1.081522541959493e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.679036458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>106858.3833757409</v>
+        <v>136424.0217498891</v>
       </c>
     </row>
     <row r="6">
@@ -27956,28 +27956,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.00636589164505</v>
+        <v>95.07853745034099</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.5729717953164</v>
+        <v>130.090649508537</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.7337267678677</v>
+        <v>117.6749805028501</v>
       </c>
       <c r="AD6" t="n">
-        <v>83006.36589164505</v>
+        <v>95078.53745034098</v>
       </c>
       <c r="AE6" t="n">
-        <v>113572.9717953164</v>
+        <v>130090.649508537</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.948981007754427e-06</v>
+        <v>1.116262173487226e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.596028645833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>102733.7267678677</v>
+        <v>117674.9805028501</v>
       </c>
     </row>
     <row r="7">
@@ -28062,28 +28062,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.67727202408859</v>
+        <v>92.74944358278454</v>
       </c>
       <c r="AB7" t="n">
-        <v>110.3862028133577</v>
+        <v>126.9038805265783</v>
       </c>
       <c r="AC7" t="n">
-        <v>99.85109854488779</v>
+        <v>114.7923522798701</v>
       </c>
       <c r="AD7" t="n">
-        <v>80677.2720240886</v>
+        <v>92749.44358278453</v>
       </c>
       <c r="AE7" t="n">
-        <v>110386.2028133577</v>
+        <v>126903.8805265783</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.054694276898445e-06</v>
+        <v>1.136098129162211e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.550455729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>99851.09854488779</v>
+        <v>114792.3522798701</v>
       </c>
     </row>
     <row r="8">
@@ -28168,28 +28168,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.79558458342008</v>
+        <v>90.86775614211601</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.8115950428453</v>
+        <v>124.3292727560659</v>
       </c>
       <c r="AC8" t="n">
-        <v>97.52220772650756</v>
+        <v>112.4634614614899</v>
       </c>
       <c r="AD8" t="n">
-        <v>78795.58458342007</v>
+        <v>90867.75614211601</v>
       </c>
       <c r="AE8" t="n">
-        <v>107811.5950428453</v>
+        <v>124329.2727560659</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.143516197830941e-06</v>
+        <v>1.152764605384639e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.5146484375</v>
       </c>
       <c r="AH8" t="n">
-        <v>97522.20772650756</v>
+        <v>112463.4614614899</v>
       </c>
     </row>
     <row r="9">
@@ -28274,28 +28274,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>76.7189137242034</v>
+        <v>88.62049308230714</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.9702023570141</v>
+        <v>121.2544682953878</v>
       </c>
       <c r="AC9" t="n">
-        <v>94.95199357069153</v>
+        <v>109.6821120230228</v>
       </c>
       <c r="AD9" t="n">
-        <v>76718.9137242034</v>
+        <v>88620.49308230713</v>
       </c>
       <c r="AE9" t="n">
-        <v>104970.2023570141</v>
+        <v>121254.4682953878</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.233666651768836e-06</v>
+        <v>1.16968036650783e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.477213541666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>94951.99357069153</v>
+        <v>109682.1120230228</v>
       </c>
     </row>
     <row r="10">
@@ -28380,28 +28380,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>75.71430226191207</v>
+        <v>87.61588162001577</v>
       </c>
       <c r="AB10" t="n">
-        <v>103.595648633978</v>
+        <v>119.8799145723518</v>
       </c>
       <c r="AC10" t="n">
-        <v>93.70862532578332</v>
+        <v>108.4387437781146</v>
       </c>
       <c r="AD10" t="n">
-        <v>75714.30226191206</v>
+        <v>87615.88162001577</v>
       </c>
       <c r="AE10" t="n">
-        <v>103595.648633978</v>
+        <v>119879.9145723518</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.258434302798091e-06</v>
+        <v>1.174327749300623e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.467447916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>93708.62532578332</v>
+        <v>108438.7437781146</v>
       </c>
     </row>
     <row r="11">
@@ -28486,28 +28486,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>74.84357439577818</v>
+        <v>86.74515375388191</v>
       </c>
       <c r="AB11" t="n">
-        <v>102.4042803537319</v>
+        <v>118.6885462921056</v>
       </c>
       <c r="AC11" t="n">
-        <v>92.63095956210763</v>
+        <v>107.3610780144389</v>
       </c>
       <c r="AD11" t="n">
-        <v>74843.57439577818</v>
+        <v>86745.15375388191</v>
       </c>
       <c r="AE11" t="n">
-        <v>102404.2803537319</v>
+        <v>118688.5462921056</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.293640427441205e-06</v>
+        <v>1.180933799170838e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>2.454427083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>92630.95956210763</v>
+        <v>107361.0780144389</v>
       </c>
     </row>
     <row r="12">
@@ -28592,28 +28592,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>75.04428800383565</v>
+        <v>86.94586736193938</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.6789055671355</v>
+        <v>118.9631715055092</v>
       </c>
       <c r="AC12" t="n">
-        <v>92.87937493058293</v>
+        <v>107.6094933829142</v>
       </c>
       <c r="AD12" t="n">
-        <v>75044.28800383565</v>
+        <v>86945.86736193938</v>
       </c>
       <c r="AE12" t="n">
-        <v>102678.9055671355</v>
+        <v>118963.1715055092</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.292311894435805e-06</v>
+        <v>1.180684514270075e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>2.454427083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>92879.37493058293</v>
+        <v>107609.4933829142</v>
       </c>
     </row>
   </sheetData>
@@ -28889,28 +28889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.67041920826373</v>
+        <v>64.90546428015865</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.85652651430743</v>
+        <v>88.80651965507323</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.76214924699324</v>
+        <v>80.33095005994758</v>
       </c>
       <c r="AD2" t="n">
-        <v>46670.41920826373</v>
+        <v>64905.46428015866</v>
       </c>
       <c r="AE2" t="n">
-        <v>63856.52651430744</v>
+        <v>88806.51965507324</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.862124274124093e-06</v>
+        <v>1.716165204618696e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.892252604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>57762.14924699324</v>
+        <v>80330.95005994759</v>
       </c>
     </row>
   </sheetData>
@@ -29186,28 +29186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.18349111978303</v>
+        <v>106.9975276026768</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.6024958661823</v>
+        <v>146.3987376636891</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.0425383660119</v>
+        <v>132.4266476130251</v>
       </c>
       <c r="AD2" t="n">
-        <v>96183.49111978302</v>
+        <v>106997.5276026768</v>
       </c>
       <c r="AE2" t="n">
-        <v>131602.4958661823</v>
+        <v>146398.7376636891</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.29185233353766e-06</v>
+        <v>1.089742397326341e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.214518229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>119042.5383660119</v>
+        <v>132426.6476130251</v>
       </c>
     </row>
     <row r="3">
@@ -29292,28 +29292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.98086981484268</v>
+        <v>78.88015764375706</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.01442518494235</v>
+        <v>107.9273116350984</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.13725899187985</v>
+        <v>97.62688048960533</v>
       </c>
       <c r="AD3" t="n">
-        <v>67980.86981484268</v>
+        <v>78880.15764375706</v>
       </c>
       <c r="AE3" t="n">
-        <v>93014.42518494236</v>
+        <v>107927.3116350984</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.466983424075588e-06</v>
+        <v>1.33173519891297e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.630208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>84137.25899187985</v>
+        <v>97626.88048960533</v>
       </c>
     </row>
     <row r="4">
@@ -29398,28 +29398,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.72470412215021</v>
+        <v>73.45339975047241</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.82270739853946</v>
+        <v>100.5021820738486</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.63190865736966</v>
+        <v>90.9103948724441</v>
       </c>
       <c r="AD4" t="n">
-        <v>62724.70412215021</v>
+        <v>73453.39975047241</v>
       </c>
       <c r="AE4" t="n">
-        <v>85822.70739853947</v>
+        <v>100502.1820738486</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.85608099167366e-06</v>
+        <v>1.411861417367882e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.48046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>77631.90865736967</v>
+        <v>90910.3948724441</v>
       </c>
     </row>
     <row r="5">
@@ -29504,28 +29504,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.37176364708705</v>
+        <v>72.10045927540925</v>
       </c>
       <c r="AB5" t="n">
-        <v>83.97155455303775</v>
+        <v>98.65102922834691</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.95742724133268</v>
+        <v>89.23591345640715</v>
       </c>
       <c r="AD5" t="n">
-        <v>61371.76364708705</v>
+        <v>72100.45927540924</v>
       </c>
       <c r="AE5" t="n">
-        <v>83971.55455303774</v>
+        <v>98651.02922834692</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.959129662544381e-06</v>
+        <v>1.433082059698406e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.444661458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>75957.42724133268</v>
+        <v>89235.91345640714</v>
       </c>
     </row>
   </sheetData>
@@ -29801,28 +29801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.9698191125846</v>
+        <v>140.4924337701314</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.4115109708753</v>
+        <v>192.2279459729474</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.006622906338</v>
+        <v>173.8819806029602</v>
       </c>
       <c r="AD2" t="n">
-        <v>117969.8191125846</v>
+        <v>140492.4337701314</v>
       </c>
       <c r="AE2" t="n">
-        <v>161411.5109708753</v>
+        <v>192227.9459729474</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.555683556437146e-06</v>
+        <v>9.025647880323557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.595377604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>146006.622906338</v>
+        <v>173881.9806029602</v>
       </c>
     </row>
     <row r="3">
@@ -29907,28 +29907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.45279393134359</v>
+        <v>101.8900677343188</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.7108178667039</v>
+        <v>139.4104857465784</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.3356099861246</v>
+        <v>126.105344650808</v>
       </c>
       <c r="AD3" t="n">
-        <v>79452.79393134359</v>
+        <v>101890.0677343188</v>
       </c>
       <c r="AE3" t="n">
-        <v>108710.8178667039</v>
+        <v>139410.4857465784</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.8692096336482e-06</v>
+        <v>1.162798487490652e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.789713541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>98335.60998612459</v>
+        <v>126105.3446508081</v>
       </c>
     </row>
     <row r="4">
@@ -30013,28 +30013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.87114834300741</v>
+        <v>84.21779652635244</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.70552001103623</v>
+        <v>115.2305046342699</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.18976511878401</v>
+        <v>104.2330669990339</v>
       </c>
       <c r="AD4" t="n">
-        <v>72871.1483430074</v>
+        <v>84217.79652635244</v>
       </c>
       <c r="AE4" t="n">
-        <v>99705.52001103623</v>
+        <v>115230.5046342699</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.309734925974689e-06</v>
+        <v>1.250074658490225e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.596028645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>90189.76511878401</v>
+        <v>104233.0669990339</v>
       </c>
     </row>
     <row r="5">
@@ -30119,28 +30119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.90343132896771</v>
+        <v>80.07948731172053</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.27671454910912</v>
+        <v>109.5682873974959</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.27907723076518</v>
+        <v>99.11124382836407</v>
       </c>
       <c r="AD5" t="n">
-        <v>68903.43132896771</v>
+        <v>80079.48731172053</v>
       </c>
       <c r="AE5" t="n">
-        <v>94276.71454910912</v>
+        <v>109568.2873974959</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.575780808320793e-06</v>
+        <v>1.302783246001159e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.490234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>85279.07723076518</v>
+        <v>99111.24382836407</v>
       </c>
     </row>
     <row r="6">
@@ -30225,28 +30225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>66.30034192153407</v>
+        <v>77.47639790428688</v>
       </c>
       <c r="AB6" t="n">
-        <v>90.71505278166055</v>
+        <v>106.0066256300473</v>
       </c>
       <c r="AC6" t="n">
-        <v>82.05733546357709</v>
+        <v>95.88950206117599</v>
       </c>
       <c r="AD6" t="n">
-        <v>66300.34192153407</v>
+        <v>77476.39790428689</v>
       </c>
       <c r="AE6" t="n">
-        <v>90715.05278166055</v>
+        <v>106006.6256300473</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.709004994488055e-06</v>
+        <v>1.329177410095137e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.44140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>82057.3354635771</v>
+        <v>95889.50206117598</v>
       </c>
     </row>
     <row r="7">
@@ -30331,28 +30331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>66.21463819633532</v>
+        <v>77.39069417908814</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.59778916386217</v>
+        <v>105.889362012249</v>
       </c>
       <c r="AC7" t="n">
-        <v>81.95126332088083</v>
+        <v>95.78342991847973</v>
       </c>
       <c r="AD7" t="n">
-        <v>66214.63819633532</v>
+        <v>77390.69417908814</v>
       </c>
       <c r="AE7" t="n">
-        <v>90597.78916386218</v>
+        <v>105889.362012249</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.705885697077793e-06</v>
+        <v>1.328559419848223e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.44140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>81951.26332088083</v>
+        <v>95783.42991847973</v>
       </c>
     </row>
   </sheetData>
